--- a/067_types_of_data_professionals/data/types_of_data_professionals.xlsx
+++ b/067_types_of_data_professionals/data/types_of_data_professionals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02-R_Tips\free_r_tips\067_types_of_data_professionals\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6230D6FD-3B37-44E7-98B2-5F00C114E787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B9ECF1-2FF8-4F9C-98BE-9D2BA9CDAF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{338C1CBA-6FCF-4D4B-AE63-0785FC4B74CB}"/>
+    <workbookView xWindow="1410" yWindow="1965" windowWidth="16620" windowHeight="10560" xr2:uid="{338C1CBA-6FCF-4D4B-AE63-0785FC4B74CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -436,7 +436,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/067_types_of_data_professionals/data/types_of_data_professionals.xlsx
+++ b/067_types_of_data_professionals/data/types_of_data_professionals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02-R_Tips\free_r_tips\067_types_of_data_professionals\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B9ECF1-2FF8-4F9C-98BE-9D2BA9CDAF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552C2CCE-6BF2-4A59-952C-40328E4628E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="1965" windowWidth="16620" windowHeight="10560" xr2:uid="{338C1CBA-6FCF-4D4B-AE63-0785FC4B74CB}"/>
+    <workbookView xWindow="135" yWindow="1425" windowWidth="15060" windowHeight="9450" xr2:uid="{338C1CBA-6FCF-4D4B-AE63-0785FC4B74CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62ABB9DD-2EC0-41FA-A852-B2984740F87A}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,25 +497,25 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>4</v>
@@ -535,16 +535,16 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>8</v>
@@ -602,10 +602,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>3.5</v>
@@ -632,7 +632,7 @@
         <v>4</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
